--- a/tut05/output/0401CS13.xlsx
+++ b/tut05/output/0401CS13.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.755102040816326</v>
+        <v>7.76</v>
       </c>
       <c r="C6" t="n">
-        <v>7.772727272727272</v>
+        <v>7.77</v>
       </c>
       <c r="D6" t="n">
-        <v>8.395348837209303</v>
+        <v>8.4</v>
       </c>
       <c r="E6" t="n">
-        <v>8.595744680851064</v>
+        <v>8.6</v>
       </c>
       <c r="F6" t="n">
-        <v>8.571428571428571</v>
+        <v>8.57</v>
       </c>
       <c r="G6" t="n">
         <v>7.7</v>
       </c>
       <c r="H6" t="n">
-        <v>8.731707317073171</v>
+        <v>8.73</v>
       </c>
       <c r="I6" t="n">
         <v>8.5</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.755102040816326</v>
+        <v>7.76</v>
       </c>
       <c r="C8" t="n">
-        <v>7.763440860215054</v>
+        <v>7.76</v>
       </c>
       <c r="D8" t="n">
-        <v>7.963235294117647</v>
+        <v>7.96</v>
       </c>
       <c r="E8" t="n">
-        <v>8.12568306010929</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>8.20888888888889</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>8.132075471698114</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>8.212418300653594</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>8.245664739884393</v>
+        <v>8.25</v>
       </c>
     </row>
   </sheetData>
